--- a/Gestion interesados/Analisis de Interesados.xlsx
+++ b/Gestion interesados/Analisis de Interesados.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,13 +104,13 @@
     <t>Lider del curso y guia del proyecto, hay que mantenerlo informado</t>
   </si>
   <si>
-    <t>Encargado del proyecto, mantenerlo informado</t>
-  </si>
-  <si>
     <t>Persona del equipo, con conocimientos en desarrollo, diseño, y planeación  mantener informado</t>
   </si>
   <si>
-    <t>Analisis de interesados</t>
+    <t xml:space="preserve">Analisis de interesados e Información sensible </t>
+  </si>
+  <si>
+    <t>Encargado del proyecto, mantenerlo informado Manejara las bases de datos</t>
   </si>
 </sst>
 </file>
@@ -165,10 +170,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,10 +457,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
@@ -465,13 +470,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -555,7 +560,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -572,7 +577,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -589,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -606,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -627,7 +632,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="34.5" x14ac:dyDescent="0.6">
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
